--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Thiết kế GUI ngoài</t>
   </si>
   <si>
-    <t>Thiết lập môi trường ứng dụng</t>
-  </si>
-  <si>
     <t>Chuyển GUI ngoài thành layout</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Mốc (realese)</t>
+  </si>
+  <si>
+    <t>Thiết lập môi trường ứng dụng + Tìm hiểu SEO</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -172,9 +172,9 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -185,17 +185,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,19 +493,19 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>6</v>
@@ -548,7 +548,7 @@
         <v>40608</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>40608</v>
@@ -568,7 +568,7 @@
         <v>40609</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <v>40609</v>
@@ -588,7 +588,7 @@
         <v>40611</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="12">
         <v>40610</v>
@@ -608,7 +608,7 @@
         <v>40617</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
         <v>40612</v>
@@ -630,7 +630,7 @@
         <v>40614</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4">
         <v>40615</v>
@@ -650,7 +650,7 @@
         <v>40617</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="12">
         <v>40618</v>
@@ -670,7 +670,7 @@
         <v>40624</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12">
@@ -683,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>40618</v>
@@ -692,7 +692,7 @@
         <v>40619</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>40620</v>
@@ -712,7 +712,7 @@
         <v>40622</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
@@ -723,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="12">
         <v>40625</v>
@@ -732,7 +732,7 @@
         <v>40629</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
@@ -745,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
         <v>40630</v>
@@ -754,7 +754,7 @@
         <v>40632</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -765,7 +765,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="15">
         <v>40633</v>
@@ -792,7 +792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -804,7 +804,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,19 +493,19 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H12" activeCellId="3" sqref="H4 H6 H9 H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
@@ -552,7 +552,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <f>D3-C3+1</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
@@ -572,7 +575,10 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <f>D4-C4+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5">
@@ -592,7 +598,10 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <f>D5-C5+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10">
@@ -614,7 +623,10 @@
       <c r="G6" s="12">
         <v>40617</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="11">
+        <f>D6-C6+1</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5">
@@ -634,7 +646,10 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <f>D7-C7+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
@@ -654,7 +669,10 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <f>D8-C8+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10">
@@ -676,7 +694,10 @@
       <c r="G9" s="12">
         <v>40624</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <f>D9-C9+1</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5">
@@ -696,7 +717,10 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <f>D10-C10+1</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5">
@@ -716,7 +740,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <f>D11-C11+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10">
@@ -738,7 +765,10 @@
       <c r="G12" s="12">
         <v>40629</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11">
+        <f>D12-C12+1</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5">
@@ -758,7 +788,10 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <f>D13-C13+1</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="13">
@@ -778,7 +811,10 @@
       <c r="G14" s="15">
         <v>40633</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14">
+        <f>D14-C14+1</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -792,7 +828,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -804,7 +840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -85,6 +85,123 @@
   </si>
   <si>
     <t>Thiết lập môi trường ứng dụng + Tìm hiểu SEO</t>
+  </si>
+  <si>
+    <t>Công việc tồn đọng</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Ưu tiên</t>
+  </si>
+  <si>
+    <t>Phần</t>
+  </si>
+  <si>
+    <t>Phân quyền user admin (BTV, sysadmin, admin)</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Quản lý mục Kết bạn (account, bình luận)</t>
+  </si>
+  <si>
+    <t>Quản lý porlet quảng cáo (xml, bên column right, banner)</t>
+  </si>
+  <si>
+    <t>Tìm kiếm quảng cáo</t>
+  </si>
+  <si>
+    <t>site func</t>
+  </si>
+  <si>
+    <t>Tìm kiếm profile</t>
+  </si>
+  <si>
+    <t>đăng ký profile</t>
+  </si>
+  <si>
+    <t>Quản ly danh mục MTV (video)</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Post video (upload --&gt; sau đó add link vào DB)</t>
+  </si>
+  <si>
+    <t>Page MTV (phân loại theo category)</t>
+  </si>
+  <si>
+    <t>Lỗi nivo slide tại porlet hot new</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Lỗi khi post bài (thỉnh thoảng) An error occurred while updating the entries. See the InnerException for details</t>
+  </si>
+  <si>
+    <t>lỗi giao diện (căn plet tin nổi bật sao cho = tin mới nhât)</t>
+  </si>
+  <si>
+    <t>Lỗi search có ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Trang thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Lỗi phần dự báo thời tiết ( chưa phiên dịch 1 số từ)</t>
+  </si>
+  <si>
+    <t>Lỗi nhập liệu potentially dangerous Request</t>
+  </si>
+  <si>
+    <t>all input form</t>
+  </si>
+  <si>
+    <t>Logo theo ý tưởng (tờ báo + chuột quang =&gt; báo đtử)</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Quản lý logo, banner (cho phép thay đổi)</t>
+  </si>
+  <si>
+    <t>Hiện trạng</t>
+  </si>
+  <si>
+    <t>Phụ trách</t>
+  </si>
+  <si>
+    <t>chưa làm</t>
+  </si>
+  <si>
+    <t>duynp</t>
+  </si>
+  <si>
+    <t>cuongnq</t>
+  </si>
+  <si>
+    <t>RSS</t>
+  </si>
+  <si>
+    <t>Mo ta</t>
+  </si>
+  <si>
+    <t>C design 1 trang thong bao loi nhe</t>
+  </si>
+  <si>
+    <t>c research xem giai phap linq</t>
+  </si>
+  <si>
+    <t>thiet ke form</t>
   </si>
 </sst>
 </file>
@@ -94,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +232,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +271,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +313,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -196,6 +370,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,25 +692,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" activeCellId="3" sqref="H4 H6 H9 H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -534,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -553,11 +758,11 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3">
-        <f>D3-C3+1</f>
+        <f t="shared" ref="H3:H14" si="0">D3-C3+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -576,11 +781,11 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="3">
-        <f>D4-C4+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -599,11 +804,11 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="3">
-        <f>D5-C5+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -624,11 +829,11 @@
         <v>40617</v>
       </c>
       <c r="H6" s="11">
-        <f>D6-C6+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -647,11 +852,11 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3">
-        <f>D7-C7+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -670,11 +875,11 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3">
-        <f>D8-C8+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -695,11 +900,11 @@
         <v>40624</v>
       </c>
       <c r="H9" s="11">
-        <f>D9-C9+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -718,11 +923,11 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3">
-        <f>D10-C10+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -741,11 +946,11 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3">
-        <f>D11-C11+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -766,11 +971,11 @@
         <v>40629</v>
       </c>
       <c r="H12" s="11">
-        <f>D12-C12+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -789,11 +994,11 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="3">
-        <f>D13-C13+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:11">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -812,11 +1017,603 @@
         <v>40633</v>
       </c>
       <c r="H14" s="14">
-        <f>D14-C14+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="23">
+        <v>1</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="24">
+        <v>4</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="23">
+        <v>2</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="24">
+        <v>4</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13">
+        <v>5</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="13">
+        <v>6</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="13">
+        <v>7</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="20">
+        <v>8</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="21">
+        <v>3</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="20">
+        <v>9</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="20">
+        <v>10</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="21">
+        <v>3</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10">
+        <v>11</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="23">
+        <v>12</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10">
+        <v>13</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="13">
+        <v>14</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="13">
+        <v>15</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="20">
+        <v>16</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="21">
+        <v>3</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="21"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="13">
+        <v>17</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="20">
+        <v>18</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="21">
+        <v>3</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="20">
+        <v>19</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+    </row>
   </sheetData>
+  <sortState ref="A17:E35">
+    <sortCondition ref="A17"/>
+  </sortState>
+  <mergeCells count="21">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -828,7 +1625,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -840,7 +1637,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$16:$K$35</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -386,17 +389,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +698,7 @@
   <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:K23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1041,14 +1044,14 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="23">
@@ -1076,8 +1079,8 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23">
@@ -1103,8 +1106,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1130,8 +1133,8 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="20">
@@ -1157,8 +1160,8 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -1184,10 +1187,10 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="29"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -1213,10 +1216,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="29"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13">
@@ -1244,10 +1247,10 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="29"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="20">
@@ -1273,8 +1276,8 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="20">
@@ -1302,8 +1305,8 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="20">
@@ -1331,8 +1334,8 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10">
@@ -1358,8 +1361,8 @@
         <v>56</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23">
@@ -1385,8 +1388,8 @@
         <v>56</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10">
@@ -1412,8 +1415,8 @@
         <v>56</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="13">
@@ -1439,10 +1442,10 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="29"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="13">
@@ -1468,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="29"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20">
@@ -1497,8 +1500,8 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13">
@@ -1524,10 +1527,10 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="29"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="20">
@@ -1555,8 +1558,8 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20">
@@ -1584,14 +1587,30 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="A16:K35">
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+  </autoFilter>
   <sortState ref="A17:E35">
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J35:K35"/>
@@ -1601,18 +1620,6 @@
     <mergeCell ref="J30:K30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>thiet ke form</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -389,16 +398,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1044,16 +1065,16 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28" t="s">
+      <c r="I16" s="27"/>
+      <c r="J16" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="23">
         <v>1</v>
       </c>
@@ -1079,10 +1100,10 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="26"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="23">
         <v>2</v>
       </c>
@@ -1106,8 +1127,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1133,10 +1154,10 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="20">
         <v>4</v>
       </c>
@@ -1160,10 +1181,10 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="13">
         <v>5</v>
       </c>
@@ -1187,12 +1208,12 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="13">
         <v>6</v>
       </c>
@@ -1216,12 +1237,12 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="13">
         <v>7</v>
       </c>
@@ -1247,12 +1268,12 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="20">
         <v>8</v>
       </c>
@@ -1276,10 +1297,10 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="20">
         <v>9</v>
       </c>
@@ -1305,10 +1326,10 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="20">
         <v>10</v>
       </c>
@@ -1334,8 +1355,8 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10">
@@ -1361,10 +1382,10 @@
         <v>56</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="23">
         <v>12</v>
       </c>
@@ -1388,37 +1409,37 @@
         <v>56</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="10">
+      <c r="A29" s="30">
         <v>13</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="31">
         <v>2</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12" t="s">
+      <c r="F29" s="31"/>
+      <c r="G29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="31"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="13">
         <v>14</v>
       </c>
@@ -1442,12 +1463,12 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="13">
         <v>15</v>
       </c>
@@ -1471,12 +1492,12 @@
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="20">
         <v>16</v>
       </c>
@@ -1500,10 +1521,10 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="13">
         <v>17</v>
       </c>
@@ -1527,12 +1548,12 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="20">
         <v>18</v>
       </c>
@@ -1558,10 +1579,10 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="20">
         <v>19</v>
       </c>
@@ -1587,11 +1608,16 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
@@ -1599,6 +1625,15 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1611,16 +1646,12 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">
+      <formula1>"old,new,bug,finished"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,19 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFFFF00"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -297,7 +310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -398,29 +411,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,11 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1065,16 +1078,16 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="23">
         <v>1</v>
       </c>
@@ -1100,10 +1113,10 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="23">
         <v>2</v>
       </c>
@@ -1127,8 +1140,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1154,10 +1167,10 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="20">
         <v>4</v>
       </c>
@@ -1181,10 +1194,10 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="1:11" hidden="1">
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="13">
         <v>5</v>
       </c>
@@ -1208,12 +1221,12 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" hidden="1">
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="13">
         <v>6</v>
       </c>
@@ -1237,12 +1250,12 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="29"/>
-    </row>
-    <row r="23" spans="1:11" hidden="1">
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="13">
         <v>7</v>
       </c>
@@ -1268,12 +1281,12 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="29"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="20">
         <v>8</v>
       </c>
@@ -1297,10 +1310,10 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="20">
         <v>9</v>
       </c>
@@ -1326,10 +1339,10 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="20">
         <v>10</v>
       </c>
@@ -1355,8 +1368,8 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10">
@@ -1382,10 +1395,10 @@
         <v>56</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" hidden="1">
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="23">
         <v>12</v>
       </c>
@@ -1409,10 +1422,10 @@
         <v>56</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" s="35" customFormat="1">
       <c r="A29" s="30">
         <v>13</v>
       </c>
@@ -1439,7 +1452,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:11" hidden="1">
+    <row r="30" spans="1:11">
       <c r="A30" s="13">
         <v>14</v>
       </c>
@@ -1463,12 +1476,12 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="29"/>
-    </row>
-    <row r="31" spans="1:11" hidden="1">
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="13">
         <v>15</v>
       </c>
@@ -1492,12 +1505,12 @@
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="29"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1">
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="20">
         <v>16</v>
       </c>
@@ -1521,10 +1534,10 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1">
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="13">
         <v>17</v>
       </c>
@@ -1548,12 +1561,12 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="28" t="s">
+      <c r="J33" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="29"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+      <c r="K33" s="27"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="20">
         <v>18</v>
       </c>
@@ -1579,10 +1592,10 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="20">
         <v>19</v>
       </c>
@@ -1608,16 +1621,12 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
@@ -1625,15 +1634,6 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1646,6 +1646,15 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -411,30 +411,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1078,14 +1078,14 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="23">
@@ -1113,8 +1113,8 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23">
@@ -1140,8 +1140,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1167,8 +1167,8 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="20">
@@ -1194,8 +1194,8 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -1221,10 +1221,10 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="27"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -1250,10 +1250,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="27"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13">
@@ -1281,10 +1281,10 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="27"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="20">
@@ -1310,8 +1310,8 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="20">
@@ -1339,8 +1339,8 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="20">
@@ -1368,35 +1368,35 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="10">
+      <c r="A27" s="26">
         <v>11</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="27">
         <v>2</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23">
@@ -1422,33 +1422,33 @@
         <v>56</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" s="35" customFormat="1">
-      <c r="A29" s="30">
+      <c r="A29" s="26">
         <v>13</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="27">
         <v>2</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H29" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="33"/>
       <c r="K29" s="34"/>
     </row>
@@ -1476,10 +1476,10 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="27"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="13">
@@ -1505,10 +1505,10 @@
         <v>56</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20">
@@ -1534,8 +1534,8 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13">
@@ -1561,10 +1561,10 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="27"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="20">
@@ -1592,8 +1592,8 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20">
@@ -1621,8 +1621,8 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
@@ -1634,6 +1634,15 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1646,15 +1655,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="0"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -368,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -416,17 +422,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,7 +441,13 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1078,14 +1091,14 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29" t="s">
+      <c r="I16" s="33"/>
+      <c r="J16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="30"/>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="23">
@@ -1113,8 +1126,8 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23">
@@ -1140,8 +1153,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1167,8 +1180,8 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="20">
@@ -1194,8 +1207,8 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -1221,10 +1234,10 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -1250,10 +1263,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13">
@@ -1281,10 +1294,10 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="20">
@@ -1310,8 +1323,8 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="20">
@@ -1339,8 +1352,8 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="20">
@@ -1368,8 +1381,8 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="26">
@@ -1395,8 +1408,8 @@
         <v>56</v>
       </c>
       <c r="I27" s="27"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="23">
@@ -1422,10 +1435,10 @@
         <v>56</v>
       </c>
       <c r="I28" s="24"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="1:11" s="35" customFormat="1">
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" s="29" customFormat="1">
       <c r="A29" s="26">
         <v>13</v>
       </c>
@@ -1449,66 +1462,66 @@
         <v>56</v>
       </c>
       <c r="I29" s="27"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="13">
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:11" s="38" customFormat="1">
+      <c r="A30" s="26">
         <v>14</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="27">
         <v>1</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="31" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="13">
+      <c r="K30" s="37"/>
+    </row>
+    <row r="31" spans="1:11" s="38" customFormat="1">
+      <c r="A31" s="26">
         <v>15</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="27">
         <v>1</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="31" t="s">
+      <c r="I31" s="27"/>
+      <c r="J31" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="32"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20">
@@ -1534,37 +1547,37 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="13">
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+    </row>
+    <row r="33" spans="1:11" s="38" customFormat="1">
+      <c r="A33" s="26">
         <v>17</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="27">
         <v>1</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="31" t="s">
+      <c r="I33" s="27"/>
+      <c r="J33" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="32"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="20">
@@ -1592,8 +1605,8 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20">
@@ -1621,8 +1634,8 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
@@ -1634,15 +1647,6 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1655,6 +1659,15 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>finished</t>
+  </si>
+  <si>
+    <t>xong</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -447,7 +450,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,10 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="J27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1100,7 +1103,7 @@
       </c>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="23">
         <v>1</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="J17" s="32"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="23">
         <v>2</v>
       </c>
@@ -1156,7 +1159,7 @@
       <c r="J18" s="32"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -1183,7 +1186,7 @@
       <c r="J19" s="32"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="20">
         <v>4</v>
       </c>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="20">
         <v>8</v>
       </c>
@@ -1326,7 +1329,7 @@
       <c r="J24" s="32"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="20">
         <v>9</v>
       </c>
@@ -1355,7 +1358,7 @@
       <c r="J25" s="32"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="20">
         <v>10</v>
       </c>
@@ -1384,7 +1387,7 @@
       <c r="J26" s="32"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="26">
         <v>11</v>
       </c>
@@ -1392,10 +1395,10 @@
         <v>40</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E27" s="27">
         <v>2</v>
@@ -1411,7 +1414,7 @@
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="23">
         <v>12</v>
       </c>
@@ -1438,7 +1441,7 @@
       <c r="J28" s="32"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" s="29" customFormat="1">
+    <row r="29" spans="1:11" s="29" customFormat="1" hidden="1">
       <c r="A29" s="26">
         <v>13</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>62</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E29" s="27">
         <v>2</v>
@@ -1465,36 +1468,36 @@
       <c r="J29" s="34"/>
       <c r="K29" s="35"/>
     </row>
-    <row r="30" spans="1:11" s="38" customFormat="1">
-      <c r="A30" s="26">
+    <row r="30" spans="1:11">
+      <c r="A30" s="13">
         <v>14</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="14">
         <v>1</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="36" t="s">
+      <c r="I30" s="14"/>
+      <c r="J30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:11" s="38" customFormat="1">
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="26">
         <v>15</v>
       </c>
@@ -1502,10 +1505,10 @@
         <v>45</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E31" s="27">
         <v>1</v>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="20">
         <v>16</v>
       </c>
@@ -1550,36 +1553,36 @@
       <c r="J32" s="32"/>
       <c r="K32" s="33"/>
     </row>
-    <row r="33" spans="1:11" s="38" customFormat="1">
-      <c r="A33" s="26">
+    <row r="33" spans="1:11">
+      <c r="A33" s="13">
         <v>17</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="14">
         <v>1</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="36" t="s">
+      <c r="I33" s="14"/>
+      <c r="J33" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="20">
         <v>18</v>
       </c>
@@ -1608,7 +1611,7 @@
       <c r="J34" s="32"/>
       <c r="K34" s="33"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="20">
         <v>19</v>
       </c>
@@ -1639,7 +1642,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -426,17 +426,17 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +450,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,11 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1094,16 +1094,16 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="32" t="s">
+      <c r="I16" s="31"/>
+      <c r="J16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" hidden="1">
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="23">
         <v>1</v>
       </c>
@@ -1129,10 +1129,10 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11" hidden="1">
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="23">
         <v>2</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11" hidden="1">
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="10">
         <v>3</v>
       </c>
@@ -1183,10 +1183,10 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:11" hidden="1">
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="20">
         <v>4</v>
       </c>
@@ -1210,8 +1210,8 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -1237,10 +1237,10 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="31"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -1266,10 +1266,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="13">
@@ -1297,12 +1297,12 @@
       <c r="I23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1">
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="20">
         <v>8</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="1:11" hidden="1">
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="20">
         <v>9</v>
       </c>
@@ -1355,10 +1355,10 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="1:11" hidden="1">
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="20">
         <v>10</v>
       </c>
@@ -1384,10 +1384,10 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33"/>
-    </row>
-    <row r="27" spans="1:11" hidden="1">
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="26">
         <v>11</v>
       </c>
@@ -1414,34 +1414,34 @@
       <c r="J27" s="34"/>
       <c r="K27" s="35"/>
     </row>
-    <row r="28" spans="1:11" hidden="1">
-      <c r="A28" s="23">
+    <row r="28" spans="1:11" s="38" customFormat="1">
+      <c r="A28" s="26">
         <v>12</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="C28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="27">
         <v>4</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" s="29" customFormat="1" hidden="1">
+      <c r="I28" s="27"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11" s="29" customFormat="1">
       <c r="A29" s="26">
         <v>13</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="26">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:11" hidden="1">
+    <row r="32" spans="1:11">
       <c r="A32" s="20">
         <v>16</v>
       </c>
@@ -1550,8 +1550,8 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="33"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13">
@@ -1577,12 +1577,12 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="31"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1">
+      <c r="K33" s="33"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="20">
         <v>18</v>
       </c>
@@ -1608,10 +1608,10 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1">
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="20">
         <v>19</v>
       </c>
@@ -1637,16 +1637,12 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="32"/>
-      <c r="K35" s="33"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
     <filterColumn colId="7" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
@@ -1654,6 +1650,15 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1666,15 +1671,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">

--- a/trunk/resources/documents/ActionPlan.xlsx
+++ b/trunk/resources/documents/ActionPlan.xlsx
@@ -426,17 +426,18 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,7 +451,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -1094,14 +1094,14 @@
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="30" t="s">
+      <c r="I16" s="34"/>
+      <c r="J16" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="31"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="23">
@@ -1129,8 +1129,8 @@
       <c r="I17" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="23">
@@ -1156,8 +1156,8 @@
         <v>56</v>
       </c>
       <c r="I18" s="24"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10">
@@ -1183,8 +1183,8 @@
         <v>55</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="20">
@@ -1210,8 +1210,8 @@
         <v>56</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="13">
@@ -1237,10 +1237,10 @@
         <v>55</v>
       </c>
       <c r="I21" s="14"/>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="33"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="13">
@@ -1266,41 +1266,41 @@
         <v>55</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="33"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="13">
+      <c r="A23" s="26">
         <v>7</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="C23" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="27">
         <v>1</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="33"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="20">
@@ -1326,8 +1326,8 @@
         <v>56</v>
       </c>
       <c r="I24" s="21"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="20">
@@ -1355,8 +1355,8 @@
       <c r="I25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="20">
@@ -1384,8 +1384,8 @@
       <c r="I26" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="26">
@@ -1411,10 +1411,10 @@
         <v>56</v>
       </c>
       <c r="I27" s="27"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" s="38" customFormat="1">
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" s="30" customFormat="1">
       <c r="A28" s="26">
         <v>12</v>
       </c>
@@ -1438,8 +1438,8 @@
         <v>56</v>
       </c>
       <c r="I28" s="27"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" s="29" customFormat="1">
       <c r="A29" s="26">
@@ -1465,8 +1465,8 @@
         <v>56</v>
       </c>
       <c r="I29" s="27"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="13">
@@ -1492,10 +1492,10 @@
         <v>55</v>
       </c>
       <c r="I30" s="14"/>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K30" s="33"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="26">
@@ -1521,10 +1521,10 @@
         <v>56</v>
       </c>
       <c r="I31" s="27"/>
-      <c r="J31" s="36" t="s">
+      <c r="J31" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="37"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20">
@@ -1550,8 +1550,8 @@
         <v>55</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="13">
@@ -1577,10 +1577,10 @@
         <v>55</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K33" s="33"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="20">
@@ -1608,8 +1608,8 @@
       <c r="I34" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="20">
@@ -1637,8 +1637,8 @@
       <c r="I35" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A16:K35">
@@ -1650,15 +1650,6 @@
     <sortCondition ref="A17"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
@@ -1671,6 +1662,15 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C35">
